--- a/connection_diagram.xlsx
+++ b/connection_diagram.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="14">
   <si>
     <t>gnd</t>
   </si>
@@ -42,19 +42,22 @@
     <t>squid current input</t>
   </si>
   <si>
-    <t>temp current meas</t>
-  </si>
-  <si>
     <t>mod coil return</t>
   </si>
   <si>
-    <t>squid return</t>
-  </si>
-  <si>
-    <t>squid nv meas</t>
-  </si>
-  <si>
-    <t>squid return meas</t>
+    <t>squid current return</t>
+  </si>
+  <si>
+    <t>squid voltage meas</t>
+  </si>
+  <si>
+    <t>squid voltage return (4-term)</t>
+  </si>
+  <si>
+    <t>temp voltage meas</t>
+  </si>
+  <si>
+    <t>temp voltage return (4-term)</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +498,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -562,16 +565,16 @@
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -580,10 +583,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>1</v>
@@ -630,12 +633,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -646,7 +649,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>1</v>
@@ -696,12 +699,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -712,10 +715,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>0</v>
